--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col1a1-Itga2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col1a1-Itga2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.717137</v>
+        <v>28.56536566666667</v>
       </c>
       <c r="H2">
-        <v>32.151411</v>
+        <v>85.69609700000001</v>
       </c>
       <c r="I2">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335975</v>
       </c>
       <c r="J2">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335974</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.625574666666667</v>
+        <v>3.339352</v>
       </c>
       <c r="N2">
-        <v>7.876724</v>
+        <v>10.018056</v>
       </c>
       <c r="O2">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="P2">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="Q2">
-        <v>28.138643406396</v>
+        <v>95.38981096971469</v>
       </c>
       <c r="R2">
-        <v>253.247790657564</v>
+        <v>858.5082987274322</v>
       </c>
       <c r="S2">
-        <v>0.004231942293041292</v>
+        <v>0.01269948429790048</v>
       </c>
       <c r="T2">
-        <v>0.004231942293041292</v>
+        <v>0.01269948429790048</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.717137</v>
+        <v>28.56536566666667</v>
       </c>
       <c r="H3">
-        <v>32.151411</v>
+        <v>85.69609700000001</v>
       </c>
       <c r="I3">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335975</v>
       </c>
       <c r="J3">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335974</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>4.204062</v>
       </c>
       <c r="O3">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="P3">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="Q3">
-        <v>15.018502803498</v>
+        <v>40.03018943844601</v>
       </c>
       <c r="R3">
-        <v>135.166525231482</v>
+        <v>360.2717049460141</v>
       </c>
       <c r="S3">
-        <v>0.002258724284406534</v>
+        <v>0.005329319316681807</v>
       </c>
       <c r="T3">
-        <v>0.002258724284406533</v>
+        <v>0.005329319316681806</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.717137</v>
+        <v>28.56536566666667</v>
       </c>
       <c r="H4">
-        <v>32.151411</v>
+        <v>85.69609700000001</v>
       </c>
       <c r="I4">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335975</v>
       </c>
       <c r="J4">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335974</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.066056</v>
+        <v>0.1338136666666667</v>
       </c>
       <c r="N4">
-        <v>0.198168</v>
+        <v>0.401441</v>
       </c>
       <c r="O4">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787613</v>
       </c>
       <c r="P4">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787612</v>
       </c>
       <c r="Q4">
-        <v>0.7079312016720001</v>
+        <v>3.822436319530779</v>
       </c>
       <c r="R4">
-        <v>6.371380815048001</v>
+        <v>34.40192687577701</v>
       </c>
       <c r="S4">
-        <v>0.0001064700934458802</v>
+        <v>0.0005088905148896618</v>
       </c>
       <c r="T4">
-        <v>0.0001064700934458801</v>
+        <v>0.0005088905148896616</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.717137</v>
+        <v>28.56536566666667</v>
       </c>
       <c r="H5">
-        <v>32.151411</v>
+        <v>85.69609700000001</v>
       </c>
       <c r="I5">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335975</v>
       </c>
       <c r="J5">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335974</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.704398</v>
+        <v>0.6405483333333334</v>
       </c>
       <c r="N5">
-        <v>2.113194</v>
+        <v>1.921645</v>
       </c>
       <c r="O5">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="P5">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="Q5">
-        <v>7.549129868526</v>
+        <v>18.29749736884056</v>
       </c>
       <c r="R5">
-        <v>67.94216881673401</v>
+        <v>164.677476319565</v>
       </c>
       <c r="S5">
-        <v>0.001135359708173233</v>
+        <v>0.002435991623887804</v>
       </c>
       <c r="T5">
-        <v>0.001135359708173233</v>
+        <v>0.002435991623887804</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>3865.561889000001</v>
       </c>
       <c r="I6">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189575</v>
       </c>
       <c r="J6">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189573</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.625574666666667</v>
+        <v>3.339352</v>
       </c>
       <c r="N6">
-        <v>7.876724</v>
+        <v>10.018056</v>
       </c>
       <c r="O6">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="P6">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="Q6">
-        <v>3383.107122730182</v>
+        <v>4302.823941718643</v>
       </c>
       <c r="R6">
-        <v>30447.96410457164</v>
+        <v>38725.41547546779</v>
       </c>
       <c r="S6">
-        <v>0.5088061250073189</v>
+        <v>0.5728457214558793</v>
       </c>
       <c r="T6">
-        <v>0.5088061250073189</v>
+        <v>0.5728457214558792</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>3865.561889000001</v>
       </c>
       <c r="I7">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189575</v>
       </c>
       <c r="J7">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189573</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -877,10 +877,10 @@
         <v>4.204062</v>
       </c>
       <c r="O7">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="P7">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="Q7">
         <v>1805.673538465902</v>
@@ -889,10 +889,10 @@
         <v>16251.06184619312</v>
       </c>
       <c r="S7">
-        <v>0.2715662622570653</v>
+        <v>0.240393837829939</v>
       </c>
       <c r="T7">
-        <v>0.2715662622570652</v>
+        <v>0.2403938378299388</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>3865.561889000001</v>
       </c>
       <c r="I8">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189575</v>
       </c>
       <c r="J8">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189573</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.066056</v>
+        <v>0.1338136666666667</v>
       </c>
       <c r="N8">
-        <v>0.198168</v>
+        <v>0.401441</v>
       </c>
       <c r="O8">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787613</v>
       </c>
       <c r="P8">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787612</v>
       </c>
       <c r="Q8">
-        <v>85.11451871326135</v>
+        <v>172.4216700313388</v>
       </c>
       <c r="R8">
-        <v>766.0306684193522</v>
+        <v>1551.795030282049</v>
       </c>
       <c r="S8">
-        <v>0.01280089186576176</v>
+        <v>0.02295492850778331</v>
       </c>
       <c r="T8">
-        <v>0.01280089186576175</v>
+        <v>0.0229549285077833</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>3865.561889000001</v>
       </c>
       <c r="I9">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189575</v>
       </c>
       <c r="J9">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189573</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.704398</v>
+        <v>0.6405483333333334</v>
       </c>
       <c r="N9">
-        <v>2.113194</v>
+        <v>1.921645</v>
       </c>
       <c r="O9">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="P9">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="Q9">
-        <v>907.6313544959407</v>
+        <v>825.3597417986007</v>
       </c>
       <c r="R9">
-        <v>8168.682190463467</v>
+        <v>7428.237676187407</v>
       </c>
       <c r="S9">
-        <v>0.1365042180643522</v>
+        <v>0.1098822083253561</v>
       </c>
       <c r="T9">
-        <v>0.1365042180643522</v>
+        <v>0.109882208325356</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.9754353333333333</v>
+        <v>0.115045</v>
       </c>
       <c r="H10">
-        <v>2.926306</v>
+        <v>0.345135</v>
       </c>
       <c r="I10">
-        <v>0.0007037840594007478</v>
+        <v>8.447004339632664E-05</v>
       </c>
       <c r="J10">
-        <v>0.0007037840594007477</v>
+        <v>8.447004339632662E-05</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.625574666666667</v>
+        <v>3.339352</v>
       </c>
       <c r="N10">
-        <v>7.876724</v>
+        <v>10.018056</v>
       </c>
       <c r="O10">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="P10">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="Q10">
-        <v>2.561078300171555</v>
+        <v>0.3841757508400001</v>
       </c>
       <c r="R10">
-        <v>23.049704701544</v>
+        <v>3.457581757560001</v>
       </c>
       <c r="S10">
-        <v>0.0003851761940955093</v>
+        <v>5.114627931253253E-05</v>
       </c>
       <c r="T10">
-        <v>0.0003851761940955092</v>
+        <v>5.114627931253252E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.9754353333333333</v>
+        <v>0.115045</v>
       </c>
       <c r="H11">
-        <v>2.926306</v>
+        <v>0.345135</v>
       </c>
       <c r="I11">
-        <v>0.0007037840594007478</v>
+        <v>8.447004339632664E-05</v>
       </c>
       <c r="J11">
-        <v>0.0007037840594007477</v>
+        <v>8.447004339632662E-05</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1125,22 +1125,22 @@
         <v>4.204062</v>
       </c>
       <c r="O11">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="P11">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="Q11">
-        <v>1.366930206108</v>
+        <v>0.16121877093</v>
       </c>
       <c r="R11">
-        <v>12.302371854972</v>
+        <v>1.45096893837</v>
       </c>
       <c r="S11">
-        <v>0.0002055809751492569</v>
+        <v>2.146345850923614E-05</v>
       </c>
       <c r="T11">
-        <v>0.0002055809751492568</v>
+        <v>2.146345850923613E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,46 +1163,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.9754353333333333</v>
+        <v>0.115045</v>
       </c>
       <c r="H12">
-        <v>2.926306</v>
+        <v>0.345135</v>
       </c>
       <c r="I12">
-        <v>0.0007037840594007478</v>
+        <v>8.447004339632664E-05</v>
       </c>
       <c r="J12">
-        <v>0.0007037840594007477</v>
+        <v>8.447004339632662E-05</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.066056</v>
+        <v>0.1338136666666667</v>
       </c>
       <c r="N12">
-        <v>0.198168</v>
+        <v>0.401441</v>
       </c>
       <c r="O12">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787613</v>
       </c>
       <c r="P12">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787612</v>
       </c>
       <c r="Q12">
-        <v>0.06443335637866666</v>
+        <v>0.01539459328166667</v>
       </c>
       <c r="R12">
-        <v>0.579900207408</v>
+        <v>0.138551339535</v>
       </c>
       <c r="S12">
-        <v>9.690525659083509E-06</v>
+        <v>2.049520736708037E-06</v>
       </c>
       <c r="T12">
-        <v>9.690525659083507E-06</v>
+        <v>2.049520736708037E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.9754353333333333</v>
+        <v>0.115045</v>
       </c>
       <c r="H13">
-        <v>2.926306</v>
+        <v>0.345135</v>
       </c>
       <c r="I13">
-        <v>0.0007037840594007478</v>
+        <v>8.447004339632664E-05</v>
       </c>
       <c r="J13">
-        <v>0.0007037840594007477</v>
+        <v>8.447004339632662E-05</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.704398</v>
+        <v>0.6405483333333334</v>
       </c>
       <c r="N13">
-        <v>2.113194</v>
+        <v>1.921645</v>
       </c>
       <c r="O13">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="P13">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="Q13">
-        <v>0.6870946979293333</v>
+        <v>0.07369188300833335</v>
       </c>
       <c r="R13">
-        <v>6.183852281364</v>
+        <v>0.6632269470750001</v>
       </c>
       <c r="S13">
-        <v>0.0001033363644968982</v>
+        <v>9.810784837849935E-06</v>
       </c>
       <c r="T13">
-        <v>0.0001033363644968981</v>
+        <v>9.810784837849933E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>83.08150333333333</v>
+        <v>43.90798866666668</v>
       </c>
       <c r="H14">
-        <v>249.24451</v>
+        <v>131.723966</v>
       </c>
       <c r="I14">
-        <v>0.05994394059648932</v>
+        <v>0.03223877359397412</v>
       </c>
       <c r="J14">
-        <v>0.05994394059648932</v>
+        <v>0.0322387735939741</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.625574666666667</v>
+        <v>3.339352</v>
       </c>
       <c r="N14">
-        <v>7.876724</v>
+        <v>10.018056</v>
       </c>
       <c r="O14">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="P14">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="Q14">
-        <v>218.1366904205822</v>
+        <v>146.6242297700107</v>
       </c>
       <c r="R14">
-        <v>1963.23021378524</v>
+        <v>1319.618067930096</v>
       </c>
       <c r="S14">
-        <v>0.03280690801337936</v>
+        <v>0.019520450714041</v>
       </c>
       <c r="T14">
-        <v>0.03280690801337936</v>
+        <v>0.01952045071404099</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>83.08150333333333</v>
+        <v>43.90798866666668</v>
       </c>
       <c r="H15">
-        <v>249.24451</v>
+        <v>131.723966</v>
       </c>
       <c r="I15">
-        <v>0.05994394059648932</v>
+        <v>0.03223877359397412</v>
       </c>
       <c r="J15">
-        <v>0.05994394059648932</v>
+        <v>0.0322387735939741</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>4.204062</v>
       </c>
       <c r="O15">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="P15">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="Q15">
-        <v>116.42659702218</v>
+        <v>61.53063554998802</v>
       </c>
       <c r="R15">
-        <v>1047.83937319962</v>
+        <v>553.7757199498922</v>
       </c>
       <c r="S15">
-        <v>0.01751010639912528</v>
+        <v>0.008191727523760363</v>
       </c>
       <c r="T15">
-        <v>0.01751010639912528</v>
+        <v>0.008191727523760357</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>83.08150333333333</v>
+        <v>43.90798866666668</v>
       </c>
       <c r="H16">
-        <v>249.24451</v>
+        <v>131.723966</v>
       </c>
       <c r="I16">
-        <v>0.05994394059648932</v>
+        <v>0.03223877359397412</v>
       </c>
       <c r="J16">
-        <v>0.05994394059648932</v>
+        <v>0.0322387735939741</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.066056</v>
+        <v>0.1338136666666667</v>
       </c>
       <c r="N16">
-        <v>0.198168</v>
+        <v>0.401441</v>
       </c>
       <c r="O16">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787613</v>
       </c>
       <c r="P16">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787612</v>
       </c>
       <c r="Q16">
-        <v>5.488031784186667</v>
+        <v>5.875488959445113</v>
       </c>
       <c r="R16">
-        <v>49.39228605768</v>
+        <v>52.87940063500601</v>
       </c>
       <c r="S16">
-        <v>0.0008253785897786137</v>
+        <v>0.0007822185516925972</v>
       </c>
       <c r="T16">
-        <v>0.0008253785897786136</v>
+        <v>0.0007822185516925968</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>83.08150333333333</v>
+        <v>43.90798866666668</v>
       </c>
       <c r="H17">
-        <v>249.24451</v>
+        <v>131.723966</v>
       </c>
       <c r="I17">
-        <v>0.05994394059648932</v>
+        <v>0.03223877359397412</v>
       </c>
       <c r="J17">
-        <v>0.05994394059648932</v>
+        <v>0.0322387735939741</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.704398</v>
+        <v>0.6405483333333334</v>
       </c>
       <c r="N17">
-        <v>2.113194</v>
+        <v>1.921645</v>
       </c>
       <c r="O17">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="P17">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="Q17">
-        <v>58.52244478499333</v>
+        <v>28.12518896045223</v>
       </c>
       <c r="R17">
-        <v>526.70200306494</v>
+        <v>253.12670064407</v>
       </c>
       <c r="S17">
-        <v>0.008801547594206066</v>
+        <v>0.003744376804480162</v>
       </c>
       <c r="T17">
-        <v>0.008801547594206066</v>
+        <v>0.00374437680448016</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.4452746666666667</v>
+        <v>0.693788</v>
       </c>
       <c r="H18">
-        <v>1.335824</v>
+        <v>2.081364</v>
       </c>
       <c r="I18">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297506</v>
       </c>
       <c r="J18">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297505</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.625574666666667</v>
+        <v>3.339352</v>
       </c>
       <c r="N18">
-        <v>7.876724</v>
+        <v>10.018056</v>
       </c>
       <c r="O18">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="P18">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="Q18">
-        <v>1.169101884508444</v>
+        <v>2.316802345376</v>
       </c>
       <c r="R18">
-        <v>10.521916960576</v>
+        <v>20.851221108384</v>
       </c>
       <c r="S18">
-        <v>0.000175828366651143</v>
+        <v>0.0003084416952643167</v>
       </c>
       <c r="T18">
-        <v>0.000175828366651143</v>
+        <v>0.0003084416952643167</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.4452746666666667</v>
+        <v>0.693788</v>
       </c>
       <c r="H19">
-        <v>1.335824</v>
+        <v>2.081364</v>
       </c>
       <c r="I19">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297506</v>
       </c>
       <c r="J19">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297505</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1621,22 +1621,22 @@
         <v>4.204062</v>
       </c>
       <c r="O19">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="P19">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="Q19">
-        <v>0.6239874352320001</v>
+        <v>0.9722425889520001</v>
       </c>
       <c r="R19">
-        <v>5.615886917088</v>
+        <v>8.750183300568001</v>
       </c>
       <c r="S19">
-        <v>9.384527815880531E-05</v>
+        <v>0.0001294370894189745</v>
       </c>
       <c r="T19">
-        <v>9.384527815880528E-05</v>
+        <v>0.0001294370894189744</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.4452746666666667</v>
+        <v>0.693788</v>
       </c>
       <c r="H20">
-        <v>1.335824</v>
+        <v>2.081364</v>
       </c>
       <c r="I20">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297506</v>
       </c>
       <c r="J20">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297505</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.066056</v>
+        <v>0.1338136666666667</v>
       </c>
       <c r="N20">
-        <v>0.198168</v>
+        <v>0.401441</v>
       </c>
       <c r="O20">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787613</v>
       </c>
       <c r="P20">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787612</v>
       </c>
       <c r="Q20">
-        <v>0.02941306338133333</v>
+        <v>0.09283831616933334</v>
       </c>
       <c r="R20">
-        <v>0.264717570432</v>
+        <v>0.835544845524</v>
       </c>
       <c r="S20">
-        <v>4.423610089997276E-06</v>
+        <v>1.235979740865918E-05</v>
       </c>
       <c r="T20">
-        <v>4.423610089997275E-06</v>
+        <v>1.235979740865918E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.4452746666666667</v>
+        <v>0.693788</v>
       </c>
       <c r="H21">
-        <v>1.335824</v>
+        <v>2.081364</v>
       </c>
       <c r="I21">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297506</v>
       </c>
       <c r="J21">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297505</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.704398</v>
+        <v>0.6405483333333334</v>
       </c>
       <c r="N21">
-        <v>2.113194</v>
+        <v>1.921645</v>
       </c>
       <c r="O21">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="P21">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="Q21">
-        <v>0.3136505846506666</v>
+        <v>0.4444047470866667</v>
       </c>
       <c r="R21">
-        <v>2.822855261856</v>
+        <v>3.99964272378</v>
       </c>
       <c r="S21">
-        <v>4.717182542348766E-05</v>
+        <v>5.916471633780026E-05</v>
       </c>
       <c r="T21">
-        <v>4.717182542348766E-05</v>
+        <v>5.916471633780024E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.246702</v>
+        <v>0.1593103333333333</v>
       </c>
       <c r="H22">
-        <v>6.740105999999999</v>
+        <v>0.477931</v>
       </c>
       <c r="I22">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="J22">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.625574666666667</v>
+        <v>3.339352</v>
       </c>
       <c r="N22">
-        <v>7.876724</v>
+        <v>10.018056</v>
       </c>
       <c r="O22">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="P22">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="Q22">
-        <v>5.898883854749332</v>
+        <v>0.5319932802373334</v>
       </c>
       <c r="R22">
-        <v>53.08995469274399</v>
+        <v>4.787939522136001</v>
       </c>
       <c r="S22">
-        <v>0.0008871691398234859</v>
+        <v>7.082559699282306E-05</v>
       </c>
       <c r="T22">
-        <v>0.0008871691398234859</v>
+        <v>7.082559699282304E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.246702</v>
+        <v>0.1593103333333333</v>
       </c>
       <c r="H23">
-        <v>6.740105999999999</v>
+        <v>0.477931</v>
       </c>
       <c r="I23">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="J23">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,22 +1869,22 @@
         <v>4.204062</v>
       </c>
       <c r="O23">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="P23">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="Q23">
-        <v>3.148424834508</v>
+        <v>0.223250172858</v>
       </c>
       <c r="R23">
-        <v>28.335823510572</v>
+        <v>2.009251555722</v>
       </c>
       <c r="S23">
-        <v>0.0004735108235739383</v>
+        <v>2.972185431433421E-05</v>
       </c>
       <c r="T23">
-        <v>0.0004735108235739382</v>
+        <v>2.97218543143342E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.246702</v>
+        <v>0.1593103333333333</v>
       </c>
       <c r="H24">
-        <v>6.740105999999999</v>
+        <v>0.477931</v>
       </c>
       <c r="I24">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="J24">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.066056</v>
+        <v>0.1338136666666667</v>
       </c>
       <c r="N24">
-        <v>0.198168</v>
+        <v>0.401441</v>
       </c>
       <c r="O24">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787613</v>
       </c>
       <c r="P24">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787612</v>
       </c>
       <c r="Q24">
-        <v>0.148408147312</v>
+        <v>0.02131789984122223</v>
       </c>
       <c r="R24">
-        <v>1.335673325808</v>
+        <v>0.191861098571</v>
       </c>
       <c r="S24">
-        <v>2.232000690903231E-05</v>
+        <v>2.838105365192197E-06</v>
       </c>
       <c r="T24">
-        <v>2.232000690903231E-05</v>
+        <v>2.838105365192196E-06</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.246702</v>
+        <v>0.1593103333333333</v>
       </c>
       <c r="H25">
-        <v>6.740105999999999</v>
+        <v>0.477931</v>
       </c>
       <c r="I25">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="J25">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.704398</v>
+        <v>0.6405483333333334</v>
       </c>
       <c r="N25">
-        <v>2.113194</v>
+        <v>1.921645</v>
       </c>
       <c r="O25">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="P25">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="Q25">
-        <v>1.582572395396</v>
+        <v>0.1020459684994444</v>
       </c>
       <c r="R25">
-        <v>14.243151558564</v>
+        <v>0.918413716495</v>
       </c>
       <c r="S25">
-        <v>0.0002380127199150499</v>
+        <v>1.358563521039146E-05</v>
       </c>
       <c r="T25">
-        <v>0.0002380127199150499</v>
+        <v>1.358563521039146E-05</v>
       </c>
     </row>
   </sheetData>
